--- a/kalendorius.xlsx
+++ b/kalendorius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darbas\CodeAcademy\2022+\TypeScript7\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4FA226-8634-4C39-B26F-E29D3F3EACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14101639-FA2E-4102-BDF4-2C50B58D6C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TypeScript</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tipų aprašymo užtvirtinimas Išplėstiniai tipai</t>
   </si>
   <si>
-    <t>Įvadas į TypeScript                    Tipų aprašymas</t>
-  </si>
-  <si>
     <t>Pakartotinis NodeJS</t>
   </si>
   <si>
@@ -75,6 +72,21 @@
   </si>
   <si>
     <t>NodeJS vertinimai</t>
+  </si>
+  <si>
+    <t>Įvadas į Hook (useState useEffect)</t>
+  </si>
+  <si>
+    <t>Komponentai</t>
+  </si>
+  <si>
+    <t>Įvadas į React</t>
+  </si>
+  <si>
+    <t>Įvadas į TypeScript Tipų aprašymas</t>
+  </si>
+  <si>
+    <t>React Atsiskaitymas</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -504,14 +519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
@@ -524,246 +539,271 @@
       <c r="C3" s="4">
         <v>44706</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>44707</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="3:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>44708</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>44711</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>44712</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>44713</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>44714</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="3:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>44715</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>44718</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
+      <c r="F11" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <v>44719</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>44720</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>44721</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>44722</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>44725</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>44726</v>
       </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>44727</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>44728</v>
       </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>44729</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>44732</v>
       </c>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>44733</v>
       </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>44734</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>44735</v>
       </c>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>44739</v>
       </c>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <v>44740</v>
       </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
         <v>44741</v>
       </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>44742</v>
       </c>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>44743</v>
       </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
         <v>44746</v>
       </c>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
         <v>44747</v>
       </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>44749</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>44750</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="4">
         <v>44753</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -771,42 +811,42 @@
       <c r="C35" s="5">
         <v>44754</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
         <v>44755</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>44756</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="6">
         <v>44757</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>44760</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>44761</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
@@ -815,13 +855,13 @@
       <c r="C41" s="6">
         <v>44762</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E6:E10"/>
@@ -830,6 +870,7 @@
     <mergeCell ref="D16:D33"/>
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="F11:F15"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kalendorius.xlsx
+++ b/kalendorius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darbas\CodeAcademy\2022+\TypeScript7\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14101639-FA2E-4102-BDF4-2C50B58D6C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E0B87-C9D5-49FD-81AE-2CE5BD1A0E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TypeScript</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>React Atsiskaitymas</t>
+  </si>
+  <si>
+    <t>React Stilizavimas</t>
+  </si>
+  <si>
+    <t>Event'ų valdymas</t>
+  </si>
+  <si>
+    <t>React Router ir Atomic Design</t>
+  </si>
+  <si>
+    <t>React useContext ir useReducer</t>
+  </si>
+  <si>
+    <t>React Storybook</t>
+  </si>
+  <si>
+    <t>Testavimo pagrindai</t>
+  </si>
+  <si>
+    <t>Projektuko darymas</t>
+  </si>
+  <si>
+    <t>Dviejų dienų pratimas</t>
   </si>
 </sst>
 </file>
@@ -519,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +583,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="3:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>44708</v>
       </c>
@@ -694,56 +718,70 @@
         <v>44728</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>44729</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>44732</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <v>44733</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <v>44734</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>44735</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>44739</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <v>44740</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
@@ -764,21 +802,23 @@
         <v>44743</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
         <v>44746</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
         <v>44747</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
@@ -861,7 +901,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E6:E10"/>
@@ -871,6 +911,8 @@
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E29:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kalendorius.xlsx
+++ b/kalendorius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darbas\CodeAcademy\2022+\TypeScript7\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E0B87-C9D5-49FD-81AE-2CE5BD1A0E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64255B-75BE-4036-8270-FD584FC3C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TypeScript</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Dviejų dienų pratimas</t>
+  </si>
+  <si>
+    <t>Life cycles ir MUI</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="C2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,23 +791,25 @@
         <v>44741</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
         <v>44742</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>44743</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
@@ -912,7 +917,7 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E28:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kalendorius.xlsx
+++ b/kalendorius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darbas\CodeAcademy\2022+\TypeScript7\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64255B-75BE-4036-8270-FD584FC3C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED2778-E473-4432-A773-4B8A822EBE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="C2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kalendorius.xlsx
+++ b/kalendorius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darbas\CodeAcademy\2022+\TypeScript7\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED2778-E473-4432-A773-4B8A822EBE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7565187-860C-4994-A2AA-0D27443DC8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TypeScript</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Life cycles ir MUI</t>
+  </si>
+  <si>
+    <t>Praktinio darbo pasibaigimas</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -218,11 +221,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,6 +262,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,6 +277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +565,7 @@
   <dimension ref="C2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +584,13 @@
       <c r="C3" s="4">
         <v>44706</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -580,73 +598,73 @@
       <c r="C4" s="5">
         <v>44707</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>44708</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>44711</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>44712</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>44713</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="3:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>44714</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="3:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>44715</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>44718</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -657,41 +675,41 @@
       <c r="C12" s="5">
         <v>44719</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>44720</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>44721</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>44722</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>44725</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -702,7 +720,7 @@
       <c r="C17" s="5">
         <v>44726</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
@@ -711,7 +729,7 @@
       <c r="C18" s="5">
         <v>44727</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
@@ -720,7 +738,7 @@
       <c r="C19" s="5">
         <v>44728</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="10" t="s">
         <v>20</v>
       </c>
@@ -729,7 +747,7 @@
       <c r="C20" s="6">
         <v>44729</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="10" t="s">
         <v>21</v>
       </c>
@@ -738,7 +756,7 @@
       <c r="C21" s="4">
         <v>44732</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="10" t="s">
         <v>19</v>
       </c>
@@ -747,8 +765,8 @@
       <c r="C22" s="5">
         <v>44733</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -756,14 +774,14 @@
       <c r="C23" s="5">
         <v>44734</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>44735</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="10" t="s">
         <v>22</v>
       </c>
@@ -772,7 +790,7 @@
       <c r="C25" s="4">
         <v>44739</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="10" t="s">
         <v>23</v>
       </c>
@@ -781,7 +799,7 @@
       <c r="C26" s="5">
         <v>44740</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="10" t="s">
         <v>24</v>
       </c>
@@ -790,7 +808,7 @@
       <c r="C27" s="5">
         <v>44741</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
@@ -799,8 +817,8 @@
       <c r="C28" s="5">
         <v>44742</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -808,29 +826,29 @@
       <c r="C29" s="6">
         <v>44743</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
         <v>44746</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
         <v>44747</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
         <v>44749</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -838,17 +856,17 @@
       <c r="C33" s="6">
         <v>44750</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="4">
         <v>44753</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -856,51 +874,53 @@
       <c r="C35" s="5">
         <v>44754</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="5">
         <v>44755</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5">
         <v>44756</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="6">
         <v>44757</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>44760</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="5">
         <v>44761</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2" t="s">
-        <v>7</v>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="6">
         <v>44762</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="9" t="s">
         <v>8</v>
       </c>
@@ -911,13 +931,13 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E39"/>
     <mergeCell ref="D16:D33"/>
     <mergeCell ref="D3:D15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
